--- a/data/tickets.xlsx
+++ b/data/tickets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Sajini\holy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Sajini\use_case_01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F5335-CF6F-4256-A29C-F72C861DF64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46619174-5433-4C4E-AB8C-B3159DF9D84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>HLXP0FTE01 (ITM[1]) - File Transfer Failed - Job_Name(FILE_TRANSFER_PROD_1497) Result_Code(970)</t>
-  </si>
-  <si>
     <t>File Transfer Services</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>B2BPROD01 (ITM[1]) - Queue MFT_MQFTE.ORDERS_ERROR has a Current Queue Depth of 48 (threshold exceeded)</t>
-  </si>
-  <si>
     <t>John Williams</t>
   </si>
   <si>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t>ACE</t>
+  </si>
+  <si>
+    <t>ABCD0FTE01 (ITM[1]) - File Transfer Failed - Job_Name(FILE_TRANSFER_PROD_1497) Result_Code(000)</t>
+  </si>
+  <si>
+    <t>B2BPROD01 (ITM[1]) - Queue XXX_YYFTE.ORDERS_ERROR has a Current Queue Depth of 48 (threshold exceeded)</t>
   </si>
 </sst>
 </file>
@@ -775,10 +775,14 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="107.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -957,10 +961,10 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -969,167 +973,167 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
       </c>
       <c r="O3" t="s">
         <v>41</v>
       </c>
       <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
         <v>65</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>66</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
       </c>
       <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
         <v>67</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>68</v>
-      </c>
-      <c r="U3" t="s">
-        <v>69</v>
       </c>
       <c r="V3" t="s">
         <v>48</v>
       </c>
       <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" t="s">
         <v>70</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
         <v>83</v>
       </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>84</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>85</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>87</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>88</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>89</v>
       </c>
       <c r="R4" t="s">
         <v>44</v>
       </c>
       <c r="S4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" t="s">
         <v>90</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>91</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>92</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
         <v>93</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>94</v>
-      </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s">
         <v>53</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1138,66 +1142,66 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
         <v>99</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>100</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>102</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s">
-        <v>104</v>
       </c>
       <c r="O5" t="s">
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R5" t="s">
         <v>44</v>
       </c>
       <c r="S5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" t="s">
         <v>107</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>108</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>109</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>110</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>111</v>
-      </c>
-      <c r="X5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>113</v>
       </c>
       <c r="Z5" t="s">
         <v>52</v>
       </c>
       <c r="AA5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -1206,10 +1210,10 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1218,64 +1222,64 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
         <v>118</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
         <v>119</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>120</v>
       </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>121</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
         <v>122</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>123</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>125</v>
       </c>
       <c r="R6" t="s">
         <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V6" t="s">
         <v>48</v>
       </c>
       <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
         <v>70</v>
       </c>
-      <c r="X6" t="s">
-        <v>71</v>
-      </c>
       <c r="Y6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
